--- a/data/balance_sheet/3digits/total/742_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/742_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>742-Photographic activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>742-Photographic activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>108429.17796</v>
@@ -1484,38 +934,43 @@
         <v>138856.71346</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>155107.24709</v>
+        <v>155301.44837</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>172440.66377</v>
+        <v>172556.82465</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>184843.72725</v>
+        <v>184971.16901</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>211341.53484</v>
+        <v>213342.88076</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>275499.55996</v>
+        <v>276327.97269</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>288877.5496099999</v>
+        <v>289434.76604</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>332332.30956</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>416251.47825</v>
+        <v>417875.00855</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>352616.72703</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>596147.8945400001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>740168.162</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>13608.12829</v>
@@ -1524,38 +979,43 @@
         <v>21436.86517</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>23244.34008</v>
+        <v>23261.72116</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>25833.96646</v>
+        <v>25834.31664</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>24474.29403</v>
+        <v>24479.53284</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>26573.25652</v>
+        <v>27384.80507</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>39061.81324</v>
+        <v>39301.13297</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>29833.41043</v>
+        <v>29878.42464</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>36302.08559</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>45155.88125999999</v>
+        <v>45579.32612999999</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>47325.59361</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>62938.37803</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>56823.273</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>9427.371429999999</v>
@@ -1564,38 +1024,43 @@
         <v>15909.65266</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>11241.46814</v>
+        <v>11258.09715</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>12494.25647</v>
+        <v>12494.59208</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>12531.63116</v>
+        <v>12536.82024</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>13992.07227</v>
+        <v>14063.42353</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>23102.2177</v>
+        <v>23247.15163</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>14371.54046</v>
+        <v>14385.53271</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>16950.25996</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>14851.0249</v>
+        <v>15020.41925</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>14536.89661</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>15244.73411</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>19294.427</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1191.26864</v>
@@ -1613,29 +1078,34 @@
         <v>3580.50973</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>4121.646839999999</v>
+        <v>4165.86484</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>5000.267400000001</v>
+        <v>5012.040400000001</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>5934.19353</v>
       </c>
       <c r="K8" s="22" t="n">
-        <v>8778.642969999999</v>
+        <v>8778.642970000001</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>4658.258859999999</v>
+        <v>4893.81587</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>6273.6213</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>7098.6213</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>5644.006</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>3161.10014</v>
@@ -1644,38 +1114,43 @@
         <v>4964.02449</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>10288.01675</v>
+        <v>10288.76882</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>10895.63743</v>
+        <v>10895.652</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>10167.73554</v>
+        <v>10167.78527</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>11421.47895</v>
+        <v>12116.28598</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>14264.64762</v>
+        <v>14322.70497</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>15000.8303</v>
+        <v>15024.31316</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>12556.86818</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>26579.25934</v>
+        <v>26597.75285</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>25295.2333</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>39310.86356999999</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>31534.705</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>1494.47412</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>973.50199</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>1368.245</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>1322.8622</v>
@@ -1733,13 +1213,13 @@
         <v>1437.43183</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>1831.80867</v>
+        <v>1832.98093</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>1574.69754</v>
+        <v>1599.25299</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>1749.09914</v>
+        <v>1756.63824</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>1609.72982</v>
@@ -1748,14 +1228,19 @@
         <v>1936.14269</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>2193.34439</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>2257.66104</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>1718.38</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>158.36327</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>59.63288</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>515.1799999999999</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>6.58561</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>1.89712</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>14.005</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>151.77766</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>40.73576</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>405.425</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,18 +1500,23 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>23044.17436</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>34266.33652999999</v>
+        <v>34266.33653</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>34839.69095</v>
@@ -2010,32 +1525,37 @@
         <v>42807.6862</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>53165.45036000001</v>
+        <v>53165.45036</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>75409.3746</v>
+        <v>75845.79012000001</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>114066.59123</v>
+        <v>114228.18504</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>126682.81858</v>
+        <v>126744.77952</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>143060.4972</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>183677.49658</v>
+        <v>184270.17636</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>139896.91026</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>354739.22028</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>351493.93</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>20748.78361</v>
@@ -2053,29 +1573,34 @@
         <v>42043.92502</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>68829.47131000001</v>
+        <v>69227.80533</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>106100.40257</v>
+        <v>106181.99638</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>120091.27736</v>
+        <v>120152.87793</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>134518.45417</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>175619.04194</v>
+        <v>176211.72172</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>130909.31145</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>344880.03822</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>334010.545</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>1146.85245</v>
@@ -2090,32 +1615,37 @@
         <v>2049.40253</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>2192.58165</v>
+        <v>2192.581650000001</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>4322.408570000001</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>5844.36127</v>
+        <v>5924.361269999999</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>5013.66057</v>
+        <v>5014.02094</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>5939.96654</v>
+        <v>5939.966539999999</v>
       </c>
       <c r="L20" s="22" t="n">
         <v>6177.22639</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>5689.18332</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>6560.766570000001</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>15639.438</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>134.0265</v>
@@ -2213,7 +1753,7 @@
         <v>2071.38418</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>1608.04839</v>
+        <v>1608.21189</v>
       </c>
       <c r="I23" s="22" t="n">
         <v>1229.78201</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>2078.21513</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>805.745</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>823.82713</v>
@@ -2253,13 +1798,13 @@
         <v>6651.81152</v>
       </c>
       <c r="H24" s="21" t="n">
-        <v>459.23323</v>
+        <v>497.15123</v>
       </c>
       <c r="I24" s="22" t="n">
         <v>454.98927</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>361.27409</v>
+        <v>361.2740899999999</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>776.4530100000001</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>1018.83119</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>814.187</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>224.30516</v>
@@ -2296,7 +1846,7 @@
         <v>191.1241</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>456.9255199999999</v>
+        <v>456.92552</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>426.96081</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>218.45517</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>316.326</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>33.62049</v>
@@ -2350,21 +1905,26 @@
       <c r="M26" s="22" t="n">
         <v>17.086</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>92.31100000000001</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>5485.794879999999</v>
       </c>
       <c r="D27" s="23" t="n">
-        <v>7162.65122</v>
+        <v>7162.651220000001</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>5836.79078</v>
+        <v>5836.790779999999</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>4854.19744</v>
@@ -2373,10 +1933,10 @@
         <v>7366.93589</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>6304.68757</v>
+        <v>6305.0289</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>9116.545830000001</v>
+        <v>9119.055059999999</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>8545.065710000001</v>
@@ -2385,17 +1945,22 @@
         <v>16529.67919</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>15987.84076</v>
+        <v>16405.94855</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>23896.92964</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>30633.84107</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>31507.916</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>4139.20482</v>
@@ -2425,17 +1990,22 @@
         <v>14120.41889</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>14168.65753</v>
+        <v>14584.84037</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>20565.97799</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>27114.14597</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>26411.742</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>220</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>1.14891</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>32.1177</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>126.011</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1122.54084</v>
@@ -2573,10 +2158,10 @@
         <v>1268.82965</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>1319.70253</v>
+        <v>1320.04386</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>975.51582</v>
+        <v>978.0250500000001</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>966.91737</v>
@@ -2585,17 +2170,22 @@
         <v>2386.70482</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>1779.86421</v>
+        <v>1781.78916</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>3281.83395</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>3470.5774</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>4953.163</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>2.90031</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>6098.679059999999</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>6098.679</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,52 +2310,62 @@
       <c r="M35" s="22" t="n">
         <v>6081.679059999999</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>6081.679</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>59807.14419</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>68522.57909</v>
+        <v>68522.57908999998</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>80557.29632000001</v>
+        <v>80722.62771</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>88140.18805</v>
+        <v>88255.92793999999</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>90897.67572</v>
+        <v>91017.87587999999</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>92504.38133</v>
+        <v>93255.27566</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>97068.61117999999</v>
+        <v>97461.32638</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>108034.76961</v>
+        <v>108174.05588</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>118916.63029</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>148306.68252</v>
+        <v>148442.13808</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>117166.71755</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>123158.16319</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>269862.85</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>11005.4174</v>
@@ -2773,29 +2383,34 @@
         <v>22623.74707</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>20061.79395</v>
+        <v>20097.43987</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>20770.37483</v>
+        <v>20779.19483</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>22720.09708</v>
+        <v>22813.15639</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>22273.73057</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>21703.45338</v>
+        <v>21748.57268</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>23262.22941</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>23414.54214</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>23395.793</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>2980.98412</v>
@@ -2804,7 +2419,7 @@
         <v>3734.85284</v>
       </c>
       <c r="E38" s="22" t="n">
-        <v>6636.88505</v>
+        <v>6636.885050000001</v>
       </c>
       <c r="F38" s="21" t="n">
         <v>6024.135730000001</v>
@@ -2825,17 +2440,22 @@
         <v>2470.70157</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>3849.92215</v>
+        <v>3879.21459</v>
       </c>
       <c r="M38" s="22" t="n">
         <v>2377.76625</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>3914.413</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>372.69159</v>
@@ -2850,16 +2470,16 @@
         <v>1627.44899</v>
       </c>
       <c r="G39" s="22" t="n">
-        <v>1367.79636</v>
+        <v>1378.91275</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>1504.03011</v>
+        <v>1515.15672</v>
       </c>
       <c r="I39" s="22" t="n">
         <v>2147.27438</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>2105.15807</v>
+        <v>2112.40089</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>11417.29857</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>12820.36831</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>12235.521</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>41235.71416</v>
@@ -2884,38 +2509,43 @@
         <v>44980.94344</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>46965.40018</v>
+        <v>47130.73157000001</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>50158.25533</v>
+        <v>50273.99522</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>51821.12518</v>
+        <v>51930.20895</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>53317.59884999999</v>
+        <v>54002.41538</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>54302.15504</v>
+        <v>54536.84184</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>58611.13045</v>
+        <v>58651.57759</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>64250.59870999999</v>
+        <v>64250.59871</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>56417.23684</v>
+        <v>56478.28066</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>58105.9929</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>58863.01096</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>66803.522</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>2041.2244</v>
@@ -2933,10 +2563,10 @@
         <v>1594.43699</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>2615.67669</v>
+        <v>2634.77398</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>2648.94842</v>
+        <v>2798.15682</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>3029.24991</v>
@@ -2948,14 +2578,19 @@
         <v>5498.53</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>4727.6505</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>4829.21117</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>3322.912</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>2171.11252</v>
@@ -3004,22 +2644,22 @@
         <v>3373.76347</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>5921.191199999999</v>
+        <v>5921.1912</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>8528.641669999999</v>
+        <v>8528.641670000001</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>6519.043600000001</v>
+        <v>6519.0436</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>8094.64421</v>
+        <v>8094.85219</v>
       </c>
       <c r="I43" s="22" t="n">
         <v>8873.200080000001</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>11428.91187</v>
+        <v>11427.44887</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>15335.48796</v>
@@ -3028,14 +2668,19 @@
         <v>50184.50581</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>15872.71018</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>20853.26436</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>160190.689</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>460.49947</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>1567.41124</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>1943.246</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>460.49947</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>1567.41124</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>1943.246</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2138.56487</v>
@@ -3216,10 +2881,10 @@
         <v>3604.28766</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>3822.9716</v>
+        <v>3823.16036</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>5312.940219999999</v>
+        <v>5312.319</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>7980.35348</v>
@@ -3228,14 +2893,19 @@
         <v>11441.69244</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>11439.85767</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>11464.85767</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>12699.389</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>2137.07581</v>
@@ -3250,32 +2920,37 @@
         <v>3389.02297</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>3605.79019</v>
+        <v>3605.790190000001</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>3576.917440000001</v>
+        <v>3576.91744</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>3809.32036</v>
+        <v>3809.50912</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>5298.4168</v>
+        <v>5297.79558</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>7924.88259</v>
+        <v>7924.882589999999</v>
       </c>
       <c r="L49" s="22" t="n">
         <v>11426.13337</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>11428.62559</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>11453.62559</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>12609.676</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>1.48906</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>11.23208</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>89.71299999999999</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3726.50863</v>
@@ -3324,38 +3004,43 @@
         <v>3854.11604</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>5381.96631</v>
+        <v>5393.455120000001</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>5382.783649999999</v>
+        <v>5382.85446</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>5231.52704</v>
+        <v>5233.52983</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>6705.444010000001</v>
+        <v>6707.590200000001</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>7351.963839999999</v>
+        <v>7384.04984</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>9486.89566</v>
+        <v>9798.471890000001</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>8875.559230000001</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>9795.926559999998</v>
+        <v>9849.76886</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>11263.67418</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>11586.39018</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>15322.378</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>1984.0945</v>
@@ -3364,38 +3049,43 @@
         <v>2435.8052</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>3428.50683</v>
+        <v>3439.99564</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>4053.49102</v>
+        <v>4053.56183</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>3798.74235</v>
+        <v>3800.74514</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>3263.70875</v>
+        <v>3265.298769999999</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>3559.1935</v>
+        <v>3591.2795</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>4307.37196</v>
+        <v>4618.94819</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>4910.04731</v>
+        <v>4910.047310000001</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>5076.009359999999</v>
+        <v>5129.651859999999</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>5361.370889999999</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>5607.095179999999</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>9149.173000000001</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>142.62187</v>
@@ -3422,20 +3112,25 @@
         <v>64.61511</v>
       </c>
       <c r="K53" s="22" t="n">
-        <v>89.80995999999999</v>
+        <v>89.80996</v>
       </c>
       <c r="L53" s="22" t="n">
         <v>319.82217</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>282.22954</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>282.51388</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>311.592</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>14.10208</v>
@@ -3453,7 +3148,7 @@
         <v>58.75887</v>
       </c>
       <c r="H54" s="21" t="n">
-        <v>64.20001000000001</v>
+        <v>64.47185</v>
       </c>
       <c r="I54" s="22" t="n">
         <v>58.73445</v>
@@ -3470,15 +3165,20 @@
       <c r="M54" s="22" t="n">
         <v>11.12632</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>3.807</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
-        <v>299.4003299999999</v>
+        <v>299.40033</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>251.39095</v>
@@ -3487,13 +3187,13 @@
         <v>504.30305</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>421.05956</v>
+        <v>421.0595599999999</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>302.82422</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>476.4613600000001</v>
+        <v>476.7456900000001</v>
       </c>
       <c r="I55" s="22" t="n">
         <v>421.38931</v>
@@ -3505,17 +3205,22 @@
         <v>639.4775100000001</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>534.72489</v>
+        <v>534.9246899999999</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>615.79967</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>692.5070400000001</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>1103.982</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1250.57988</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>4948.169650000001</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>4580.454</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>3.03177</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>44.97811</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>173.37</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.05784</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>32.62036</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>101407.42417</v>
@@ -3723,38 +3453,43 @@
         <v>106115.43455</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>120052.94834</v>
+        <v>120375.44109</v>
       </c>
       <c r="F61" s="37" t="n">
-        <v>133233.67244</v>
+        <v>133601.93416</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>145298.55509</v>
+        <v>145711.6416</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>149083.9211</v>
+        <v>150147.92197</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>163479.86191</v>
+        <v>164459.749</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>188410.62532</v>
+        <v>189516.58222</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>209710.30139</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>245210.58022</v>
+        <v>245682.53425</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>251686.79773</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>255721.18294</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>258800.995</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>275.72733</v>
@@ -3763,7 +3498,7 @@
         <v>68.63461</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>58.24032</v>
+        <v>58.24031999999999</v>
       </c>
       <c r="F62" s="37" t="n">
         <v>809.1875</v>
@@ -3778,23 +3513,28 @@
         <v>679.11942</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>344.63544</v>
+        <v>347.02305</v>
       </c>
       <c r="K62" s="36" t="n">
-        <v>298.5632400000001</v>
+        <v>298.56324</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>883.723</v>
+        <v>883.798</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>1741.12394</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>1741.19894</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>1856.351</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0.51322</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>172.70985</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>350</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>350</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>102.50426</v>
@@ -3963,7 +3723,7 @@
         <v>68.63461</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>58.24032</v>
+        <v>58.24031999999999</v>
       </c>
       <c r="F67" s="21" t="n">
         <v>252.54629</v>
@@ -3978,23 +3738,28 @@
         <v>416.70878</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>90.24213</v>
+        <v>92.62974</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>201.49327</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>715.62936</v>
+        <v>715.70436</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>1391.12394</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>1391.19894</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>1505.976</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>449.0948</v>
@@ -4067,14 +3837,19 @@
         <v>950.1536100000001</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>2742.15985</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>2742.15986</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>27129.941</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>168.08581</v>
@@ -4107,14 +3882,19 @@
         <v>487.8751899999999</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>2460.65153</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>2460.65154</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>3111.432</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>23649</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>1.765</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>279.24399</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>281.50832</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>369.509</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>18.10362</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>39156.427</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>6349.927</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>18.10362</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>9157.5</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>28648.927</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>4999.927</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>1350</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,52 +4649,62 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>74850.54661000002</v>
+        <v>74850.54661</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>81237.74083</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>93008.10322</v>
+        <v>93330.59596999999</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>101988.03692</v>
+        <v>102356.29864</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>106323.94994</v>
+        <v>106735.80809</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>111040.60071</v>
+        <v>112026.74228</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>120629.67749</v>
+        <v>121575.91081</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>129069.88999</v>
+        <v>129967.35265</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>138276.685</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>144727.31944</v>
+        <v>145264.28135</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>148507.95627</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>151263.08361</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>163289.04</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>745.96502</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>6167.17141</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>7432.159</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>599.3265699999999</v>
@@ -4909,15 +4784,20 @@
       <c r="M90" s="22" t="n">
         <v>3.8644</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
-        <v>7007.957199999999</v>
+        <v>7007.957200000001</v>
       </c>
       <c r="D91" s="22" t="n">
         <v>7904.32386</v>
@@ -4947,14 +4827,19 @@
         <v>27947.87603</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>28287.00823</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>28349.9267</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>28945.866</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>30265.43052</v>
@@ -4963,7 +4848,7 @@
         <v>31227.79662</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>35118.24112</v>
+        <v>35118.24112000001</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>37923.28717</v>
@@ -4975,26 +4860,31 @@
         <v>36983.468</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>37690.13395</v>
+        <v>38117.58512</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>36939.0338</v>
+        <v>38192.04899</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>37904.12286</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>36347.94195</v>
+        <v>36349.8911</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>33974.72973</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>34801.39401</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>33666.365</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>17783.22576</v>
@@ -5003,19 +4893,19 @@
         <v>19700.807</v>
       </c>
       <c r="E93" s="22" t="n">
-        <v>21857.45074</v>
+        <v>21923.66499</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>23697.18984</v>
+        <v>23751.45409</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>21752.62964</v>
+        <v>21816.17527</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>22624.92162</v>
+        <v>22999.09823</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>25445.54767</v>
+        <v>25807.36861</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>28182.99313</v>
@@ -5024,57 +4914,67 @@
         <v>31570.5141</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>33012.33132</v>
+        <v>33089.27512</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>35270.25066</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>36445.02615</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>46140.084</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>59169.83794999999</v>
+        <v>59169.83795</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>62832.78108</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>67528.82262000001</v>
+        <v>67851.64314</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>70957.76175000001</v>
+        <v>71323.27367</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>73296.19087000001</v>
+        <v>73696.01784</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>73560.69379</v>
+        <v>74542.73806999999</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>78065.48733</v>
+        <v>78788.99144</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>82527.22751000001</v>
+        <v>82830.47457999999</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>87200.25629</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>89305.55243</v>
+        <v>89902.07265</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>96493.27232</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>98114.62198000001</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>104630.323</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>461.61526</v>
@@ -5101,7 +5001,7 @@
         <v>480.30088</v>
       </c>
       <c r="K95" s="22" t="n">
-        <v>657.7082899999999</v>
+        <v>657.70829</v>
       </c>
       <c r="L95" s="22" t="n">
         <v>823.9941600000001</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>502.58487</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>502.582</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>42496.60203</v>
@@ -5123,38 +5028,43 @@
         <v>44828.06646</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>47024.78359000001</v>
+        <v>47091.32561</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>49348.06428</v>
+        <v>49399.57872999999</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>48066.18721</v>
+        <v>48117.70166</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>47565.49918</v>
+        <v>47935.5785</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>48691.71025000001</v>
+        <v>49258.25315</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>51158.83452</v>
+        <v>51817.63411999999</v>
       </c>
       <c r="K96" s="22" t="n">
-        <v>53704.48321</v>
+        <v>53704.48320999999</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>53991.82721</v>
+        <v>54130.27847</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>57611.92957999999</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>58542.51014</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>65055.489</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>1192.38375</v>
@@ -5187,14 +5097,19 @@
         <v>4325.25824</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>4757.90149</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>4757.901489999999</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>6584.224</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>121.40661</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>663.10274</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>439.062</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>20497.15905</v>
@@ -5249,32 +5169,37 @@
         <v>21050.37089</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>21808.598</v>
+        <v>21809.82636</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>20569.79383</v>
+        <v>20640.79384</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>20769.92309</v>
+        <v>20803.57686</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>22795.00112</v>
+        <v>22991.5737</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>25990.72735</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>27228.72668</v>
+        <v>27235.00016</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>28993.21441</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>29185.40828</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>30215.979</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>14012.73178</v>
@@ -5307,14 +5232,19 @@
         <v>13310.1079</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>13201.93595</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>13209.89358</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>13187.173</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>27.08129</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>2.27875</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>145.30287</v>
@@ -5369,13 +5304,13 @@
         <v>197.37925</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>203.46289</v>
+        <v>204.69125</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>197.30176</v>
+        <v>200.52643</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>192.85544</v>
+        <v>194.85175</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>211.15489</v>
@@ -5384,17 +5319,22 @@
         <v>210.0419</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>197.53704</v>
+        <v>204.23832</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>205.65716</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>217.22295</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>205.679</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>50.33244000000001</v>
@@ -5429,18 +5369,23 @@
       <c r="M103" s="22" t="n">
         <v>451.63587</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>1003.979</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>4133.119210000001</v>
+        <v>4133.11921</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>5330.07394</v>
+        <v>5330.073939999999</v>
       </c>
       <c r="E104" s="22" t="n">
         <v>6168.574</v>
@@ -5452,13 +5397,13 @@
         <v>8781.121300000001</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>11224.98756</v>
+        <v>11307.46514</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>12531.91892</v>
+        <v>12566.47564</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>14743.03501</v>
+        <v>14767.38892</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>16364.96251</v>
@@ -5467,17 +5412,22 @@
         <v>18931.15477</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>20675.44439</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>20790.09012</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>22801.507</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>5605.00615</v>
+        <v>5605.006149999999</v>
       </c>
       <c r="D105" s="22" t="n">
         <v>3643.93233</v>
@@ -5498,7 +5448,7 @@
         <v>1921.9034</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>1584.78012</v>
+        <v>1878.6241</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>1546.06453</v>
@@ -5507,14 +5457,19 @@
         <v>1554.0441</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>1382.93206</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>1448.40514</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>1629.099</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>3656.56561</v>
@@ -5532,29 +5487,34 @@
         <v>5076.218339999999</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>6252.560410000001</v>
+        <v>6267.262650000001</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>6532.252649999999</v>
+        <v>6535.15191</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>6407.636759999999</v>
+        <v>6529.262070000001</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>6461.43892</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>6854.19762</v>
+        <v>6854.62542</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>7737.02899</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>7744.47735</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>8613.736999999999</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>180.15092</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>810.3592199999999</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>37.75</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>1130.602</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>37.75</v>
@@ -5829,15 +5819,20 @@
       <c r="M113" s="22" t="n">
         <v>1130.602</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
-        <v>5249.697709999999</v>
+        <v>5249.69771</v>
       </c>
       <c r="D114" s="23" t="n">
         <v>5480.97832</v>
@@ -5852,32 +5847,37 @@
         <v>9799.774609999999</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>10388.09608</v>
+        <v>10394.95537</v>
       </c>
       <c r="I114" s="23" t="n">
         <v>13974.64594</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>16419.37756</v>
+        <v>16428.91161</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>15382.50893</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>18573.42397</v>
+        <v>18575.25414</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>15755.71916</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>16842.70815</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>16489.692</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>5249.697709999999</v>
+        <v>5249.69771</v>
       </c>
       <c r="D115" s="22" t="n">
         <v>5480.97832</v>
@@ -5892,29 +5892,34 @@
         <v>9697.70566</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>10388.09607</v>
+        <v>10394.95536</v>
       </c>
       <c r="I115" s="22" t="n">
         <v>13974.64594</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>16419.37756</v>
+        <v>16428.91161</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>15364.6216</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>18573.42397</v>
+        <v>18575.25414</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>15755.71915</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>16842.70814</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>16488.174</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>1e-05</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>29.34505</v>
@@ -5963,7 +5973,7 @@
         <v>167.86193</v>
       </c>
       <c r="E117" s="23" t="n">
-        <v>84.91551999999999</v>
+        <v>84.91552</v>
       </c>
       <c r="F117" s="33" t="n">
         <v>38.7634</v>
@@ -5984,17 +5994,22 @@
         <v>11445.54244</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>13690.80652</v>
+        <v>13617.61999</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>13659.5951</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>13470.065</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>16.34558</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0.73803</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>16.04025</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0.07734000000000001</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>204.229</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>2.54682</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>68.01058</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>68.011</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>9633.466269999999</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>5.66494</v>
@@ -6304,17 +6354,22 @@
         <v>0</v>
       </c>
       <c r="L125" s="22" t="n">
-        <v>0.055</v>
+        <v>73.24153</v>
       </c>
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>265.153</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>3881.98022</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>13461.94</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>209836.60213</v>
@@ -6363,35 +6423,38 @@
         <v>244972.14801</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>275160.19543</v>
+        <v>275676.88946</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>305674.33621</v>
+        <v>306158.7588100001</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>330142.28234</v>
+        <v>330682.81061</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>360425.45594</v>
+        <v>363490.80273</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>438979.42187</v>
+        <v>440787.72169</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>477288.17493</v>
+        <v>478951.3482600001</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>542042.61095</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>661462.05847</v>
+        <v>663557.5427999999</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>604303.5247599999</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>851869.07748</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>998969.157</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>742-Photographic activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>138302.12838</v>
@@ -6495,38 +6572,43 @@
         <v>168256.286</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>176547.30712</v>
+        <v>177203.69763</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>193193.36963</v>
+        <v>193926.10732</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>217742.89232</v>
+        <v>218770.1956</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>250210.8969</v>
+        <v>253132.8705</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>308119.81144</v>
+        <v>309218.13403</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>344619.68397</v>
+        <v>343223.56132</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>391268.47416</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>501469.50365</v>
+        <v>503427.6996000001</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>427348.59615</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>672430.93532</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>811460.357</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>10143.08011</v>
@@ -6544,29 +6626,34 @@
         <v>18284.32174</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>21296.99804</v>
+        <v>21525.83548</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>24318.14908</v>
+        <v>24628.42172</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>24159.62765</v>
+        <v>24156.20086</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>28233.32565</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>28579.38944</v>
+        <v>28579.39144</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>25806.70316</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>26752.02421</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>44264.651</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>8167.217030000001</v>
@@ -6584,38 +6671,43 @@
         <v>15406.93066</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>18449.94498</v>
+        <v>18660.96666</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>21727.8137</v>
+        <v>22034.42596</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>20484.31422</v>
+        <v>20481.33366</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>24589.51078</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>25923.05449</v>
+        <v>25923.05649</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>22238.7367</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>23071.67672</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>35158.566</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>762.7395</v>
       </c>
       <c r="D135" s="22" t="n">
-        <v>603.66608</v>
+        <v>603.6660800000001</v>
       </c>
       <c r="E135" s="22" t="n">
-        <v>806.0089499999999</v>
+        <v>810.59628</v>
       </c>
       <c r="F135" s="21" t="n">
         <v>640.34025</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>410.71142</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>22.044</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>120.38889</v>
@@ -6655,7 +6752,7 @@
         <v>77.22952000000001</v>
       </c>
       <c r="E136" s="22" t="n">
-        <v>79.32464999999999</v>
+        <v>83.91198</v>
       </c>
       <c r="F136" s="21" t="n">
         <v>128.07464</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>40.57114</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>1270.9082</v>
@@ -6704,10 +6806,10 @@
         <v>2449.93033</v>
       </c>
       <c r="H137" s="21" t="n">
-        <v>2175.57362</v>
+        <v>2193.38938</v>
       </c>
       <c r="I137" s="22" t="n">
-        <v>1843.82171</v>
+        <v>1847.48209</v>
       </c>
       <c r="J137" s="21" t="n">
         <v>1670.80322</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>2209.38253</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>7646.706</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>51.496</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>62.60427</v>
@@ -6910,7 +7037,7 @@
         <v>540.2514199999999</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>1309.52465</v>
+        <v>1309.07842</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>1277.7996</v>
@@ -6919,94 +7046,109 @@
         <v>928.63551</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>988.4436499999999</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>1100.82468</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>1397.268</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>47241.85061</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>57757.45280000001</v>
+        <v>57757.4528</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>60661.84308999999</v>
+        <v>61274.33853999999</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>64888.38261999999</v>
+        <v>65591.91354000001</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>75657.53795999999</v>
+        <v>76619.75804</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>94883.48670000001</v>
+        <v>95903.95675</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>131077.61445</v>
+        <v>131153.66</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>153812.18128</v>
+        <v>153961.71064</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>165909.45337</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>245850.65434</v>
+        <v>246771.76224</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>168094.97568</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>397661.99643</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>483322.812</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>40162.86888</v>
       </c>
       <c r="D144" s="25" t="n">
-        <v>46991.04881</v>
+        <v>46991.04880999999</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>48286.20966</v>
+        <v>48898.70511</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>48664.48642</v>
+        <v>49368.01734</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>52062.79878</v>
+        <v>53006.51886</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>62191.18665</v>
+        <v>63090.06759999999</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>87984.70581</v>
+        <v>88010.75136000001</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>88477.97431999999</v>
+        <v>88627.36137</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>103656.36582</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>223317.39429</v>
+        <v>224238.36759</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>144546.71486</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>369838.08454</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>453863.9</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>5413.24671</v>
@@ -7021,32 +7163,37 @@
         <v>13327.30721</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>20812.25812</v>
+        <v>20830.75812</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>29966.54361</v>
+        <v>30088.13271</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>38499.10078</v>
+        <v>38549.10078</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>61670.55923000001</v>
+        <v>61670.55923</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>58431.85901</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>19426.38496</v>
+        <v>19426.38596</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>19185.19128</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>21697.35585</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>21105.322</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>135</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>27.4918</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>27.492</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>1530.73502</v>
@@ -7150,23 +7307,28 @@
         <v>4585.254859999999</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>3654.37298</v>
+        <v>3654.515289999999</v>
       </c>
       <c r="K148" s="25" t="n">
-        <v>3809.485499999999</v>
+        <v>3809.4855</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>3079.38329</v>
+        <v>3079.51689</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>4335.577740000001</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>6099.06424</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>8326.098</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>68794.32806</v>
@@ -7175,38 +7337,43 @@
         <v>78970.3765</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>77249.37036999999</v>
+        <v>77249.37037</v>
       </c>
       <c r="F149" s="33" t="n">
-        <v>87058.45595</v>
+        <v>87076.45595</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>99992.11771999999</v>
+        <v>100034.17313</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>103094.21124</v>
+        <v>104475.10344</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>110040.8729</v>
+        <v>110668.40735</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>125805.81371</v>
+        <v>124235.4938</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>147233.06184</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>171436.9743</v>
+        <v>172147.7089</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>171801.94814</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>182908.00428</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>181238.889</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>65604.54552</v>
@@ -7218,35 +7385,40 @@
         <v>72454.92990999999</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>80924.07375</v>
+        <v>80942.07375</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>86661.51999000002</v>
+        <v>86703.5754</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>88882.59963</v>
+        <v>89387.58736</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>94947.53594999999</v>
+        <v>95561.89854999998</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>110846.75353</v>
+        <v>109282.95445</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>132007.26457</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>155402.96951</v>
+        <v>156093.7861</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>154932.40036</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>165718.42593</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>164438.507</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>67.85075999999999</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>112.5</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>711.1547400000001</v>
@@ -7344,7 +7526,7 @@
         <v>1809.12994</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>2867.54666</v>
+        <v>2882.40679</v>
       </c>
       <c r="I153" s="22" t="n">
         <v>2287.98788</v>
@@ -7356,17 +7538,22 @@
         <v>3273.97284</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>3620.00437</v>
+        <v>3628.05729</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>5057.945320000001</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>5334.58201</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>3909.924</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>2410.77704</v>
@@ -7384,29 +7571,34 @@
         <v>11521.46779</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>11344.06495</v>
+        <v>12205.10929</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>12805.34907</v>
+        <v>12818.52092</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>12078.65853</v>
+        <v>12072.1377</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>11758.32443</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>11955.90042</v>
+        <v>11967.76551</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>11717.92546</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>11761.31934</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>12890.458</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,21 +7633,26 @@
       <c r="M155" s="22" t="n">
         <v>18.823</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>1706.62544</v>
       </c>
       <c r="D156" s="23" t="n">
-        <v>3142.433289999999</v>
+        <v>3142.43329</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>5612.702459999999</v>
+        <v>5612.70246</v>
       </c>
       <c r="F156" s="33" t="n">
         <v>5092.79958</v>
@@ -7464,13 +7661,13 @@
         <v>6330.004400000001</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>8167.562690000001</v>
+        <v>8183.43669</v>
       </c>
       <c r="I156" s="23" t="n">
         <v>16202.51583</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>11134.04879</v>
+        <v>11158.60229</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>14598.19414</v>
@@ -7479,14 +7676,19 @@
         <v>18804.75757</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>18734.37201</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>20767.89976</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>48643.022</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>1649.11332</v>
@@ -7495,22 +7697,22 @@
         <v>3079.82997</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>5583.152459999999</v>
+        <v>5583.15246</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>5029.343890000001</v>
+        <v>5029.34389</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>6329.798709999999</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>8164.857</v>
+        <v>8180.731</v>
       </c>
       <c r="I157" s="22" t="n">
         <v>16149.55147</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>10919.1637</v>
+        <v>10943.7172</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>14457.9809</v>
@@ -7519,14 +7721,19 @@
         <v>18737.66144</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>18728.50632</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>20762.03407</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>48631.296</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>57.51212</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>5.86569</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>11.726</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>2.33733</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>2.33733</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>9422.58181</v>
@@ -7695,38 +7922,43 @@
         <v>11900.63671</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>13288.23221</v>
+        <v>13332.12727</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>15405.56903</v>
+        <v>15416.7758</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>15894.37355</v>
+        <v>15917.18625</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>20017.70594</v>
+        <v>20293.14447</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>23277.84363</v>
+        <v>23357.68681</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>27345.62392</v>
+        <v>27349.16511</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>31950.38077</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>34498.70294</v>
+        <v>34796.08934000001</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>39749.80543</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>40969.09717</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>49001.301</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>4012.14487</v>
@@ -7735,38 +7967,43 @@
         <v>5345.1608</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>5366.983079999999</v>
+        <v>5380.24385</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>6326.035140000001</v>
+        <v>6329.081889999999</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>6213.794100000001</v>
+        <v>6221.7417</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>7856.954879999999</v>
+        <v>8030.69809</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>8675.96912</v>
+        <v>8705.742849999999</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>9798.286270000001</v>
+        <v>9800.02497</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>12039.39564</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>12420.43026</v>
+        <v>12550.13204</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>15208.22788</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>15677.23884</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>18134.935</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2174.31753</v>
@@ -7775,38 +8012,43 @@
         <v>2557.74055</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>3034.18065</v>
+        <v>3040.41688</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>3603.30755</v>
+        <v>3611.46757</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>3230.81496</v>
+        <v>3245.68006</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>4997.55355</v>
+        <v>5076.338600000001</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>4626.696359999999</v>
+        <v>4647.14849</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>4983.66388</v>
+        <v>4985.46637</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>5341.092120000001</v>
+        <v>5341.09212</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>5702.52233</v>
+        <v>5712.59551</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>7408.28071</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>7586.19772</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>7813.571</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>3212.13948</v>
@@ -7815,7 +8057,7 @@
         <v>3948.86165</v>
       </c>
       <c r="E165" s="22" t="n">
-        <v>4841.199009999999</v>
+        <v>4865.597070000001</v>
       </c>
       <c r="F165" s="21" t="n">
         <v>5438.89575</v>
@@ -7824,10 +8066,10 @@
         <v>6409.64517</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>7109.34962</v>
+        <v>7132.259889999999</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>9930.650039999999</v>
+        <v>9960.26736</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>12505.79727</v>
@@ -7836,17 +8078,22 @@
         <v>14497.1769</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>16265.25157</v>
+        <v>16422.86301</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>16999.82841</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>17571.89518</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>22919.136</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>23.97993</v>
@@ -7879,14 +8126,19 @@
         <v>110.49878</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>133.46843</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>133.76543</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>133.659</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>735.40255</v>
@@ -7895,19 +8147,19 @@
         <v>582.6800500000001</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>932.3278700000001</v>
+        <v>932.32787</v>
       </c>
       <c r="F167" s="33" t="n">
         <v>753.3504</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>875.12914</v>
+        <v>875.3442299999999</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>1652.91396</v>
+        <v>1653.37534</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>1901.64338</v>
+        <v>1906.27015</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>1861.8075</v>
@@ -7916,17 +8168,22 @@
         <v>2468.01107</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>1136.17598</v>
+        <v>1160.83912</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>1953.96046</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2165.0822</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>2804.128</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>933.21201</v>
@@ -7941,13 +8198,13 @@
         <v>2072.67412</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>2327.52335</v>
+        <v>2327.75593</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>2709.45128</v>
+        <v>2738.38827</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>3291.23376</v>
+        <v>3308.27417</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>3498.92662</v>
@@ -7956,17 +8213,22 @@
         <v>3498.19354</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>2824.20669</v>
+        <v>2834.58321</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>3559.66804</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>3779.8806</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>4937.163</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>480.2140899999999</v>
@@ -7981,13 +8243,13 @@
         <v>1319.32372</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>1452.39421</v>
+        <v>1452.4117</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>1056.53732</v>
+        <v>1085.01293</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>1389.59038</v>
+        <v>1402.00402</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>1637.11912</v>
@@ -7996,17 +8258,22 @@
         <v>1031.79947</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>1694.51996</v>
+        <v>1680.23334</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>1783.44037</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>1792.53119</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>2377.2</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>36.21896</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>235.50377</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>177.73279</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>244.165</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>10.6819</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>111.00937</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>932.9663</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>1204.959</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>88.36023</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>470.779</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>111.00937</v>
@@ -8236,17 +8528,22 @@
         <v>308.8574599999999</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>729.73994</v>
+        <v>729.7399399999999</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>844.60607</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>844.6060699999999</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>734.1799999999999</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>147.25043</v>
@@ -8276,17 +8573,22 @@
         <v>93.41748000000001</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>351.56389</v>
+        <v>355.8658</v>
       </c>
       <c r="M176" s="23" t="n">
         <v>271.52764</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>978.258</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>146.85243</v>
@@ -8298,7 +8600,7 @@
         <v>149.84244</v>
       </c>
       <c r="F177" s="21" t="n">
-        <v>99.34518000000001</v>
+        <v>99.34518</v>
       </c>
       <c r="G177" s="22" t="n">
         <v>472.89523</v>
@@ -8313,7 +8615,7 @@
         <v>74.38481</v>
       </c>
       <c r="K177" s="22" t="n">
-        <v>88.02332</v>
+        <v>88.02332000000001</v>
       </c>
       <c r="L177" s="22" t="n">
         <v>345.24846</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>262.59289</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>972.856</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.3965</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>3.53222</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>4.978050000000001</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0.0015</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.42448</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8476,17 +8798,22 @@
         <v>0</v>
       </c>
       <c r="L181" s="35" t="n">
-        <v>0</v>
+        <v>4.301909999999999</v>
       </c>
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>2.517</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>26111.09973</v>
@@ -8501,13 +8828,13 @@
         <v>35722.85204</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>42556.38731999999</v>
+        <v>42556.38732</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>42849.20265</v>
+        <v>43212.86027</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>55331.99503</v>
+        <v>55499.98037</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>62183.49853</v>
@@ -8516,26 +8843,31 @@
         <v>75782.13290000001</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>80294.19168</v>
+        <v>80931.88478000001</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>95573.00868000001</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>95887.69588000001</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>108317.011</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>8255.937969999999</v>
       </c>
       <c r="D183" s="23" t="n">
-        <v>6538.432750000001</v>
+        <v>6538.43275</v>
       </c>
       <c r="E183" s="23" t="n">
-        <v>8302.836009999999</v>
+        <v>8302.836010000001</v>
       </c>
       <c r="F183" s="33" t="n">
         <v>12210.37286</v>
@@ -8547,7 +8879,7 @@
         <v>17027.43544</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>25553.71707</v>
+        <v>25554.90227</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>26445.23644</v>
@@ -8559,14 +8891,19 @@
         <v>24624.75484</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>25259.48613</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>25462.84118</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>30840.664</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>5768.16308</v>
@@ -8587,7 +8924,7 @@
         <v>15908.42354</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>24089.23519</v>
+        <v>24090.42039</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>25752.79989</v>
@@ -8599,14 +8936,19 @@
         <v>23436.89507</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>24694.26777</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>24897.62282</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>30346.281</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>2858.08843</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>564.6714499999999</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>493.836</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>370.31354</v>
@@ -8655,7 +9002,7 @@
         <v>216.63528</v>
       </c>
       <c r="E186" s="22" t="n">
-        <v>381.3705600000001</v>
+        <v>381.37056</v>
       </c>
       <c r="F186" s="21" t="n">
         <v>326.05862</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>128.53657</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>128.536</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>129.08348</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>129.083</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>1343.80803</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>1169.44332</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>399.009</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>597.48822</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>81.03352000000001</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>145.03</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>746.3198100000001</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>917.675</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>248.729</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>5.25</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>165.4848</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>15890.1153</v>
@@ -9104,10 +9506,10 @@
         <v>25355.43894</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>23385.00678</v>
+        <v>23748.6644</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>25448.59538</v>
+        <v>25615.39552</v>
       </c>
       <c r="J197" s="33" t="n">
         <v>31656.69878</v>
@@ -9116,17 +9518,22 @@
         <v>41869.66752</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>43505.18268</v>
+        <v>44142.87578</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>59787.82168</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>59886.58068</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>67942.50199999999</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>15216.72246</v>
@@ -9144,10 +9551,10 @@
         <v>24393.3419</v>
       </c>
       <c r="H198" s="21" t="n">
-        <v>22105.65681</v>
+        <v>22469.31443</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>24249.20673</v>
+        <v>24416.00687</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>28252.55227</v>
@@ -9156,17 +9563,22 @@
         <v>38485.60711</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>40302.21964</v>
+        <v>40939.91273999999</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>56105.42793000001</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>56204.18693000001</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>64214.452</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>76.4648</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>46.83430000000001</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>4.655</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>596.92804</v>
@@ -9341,7 +9773,7 @@
         <v>1186.67063</v>
       </c>
       <c r="G203" s="22" t="n">
-        <v>937.44204</v>
+        <v>937.4420399999999</v>
       </c>
       <c r="H203" s="21" t="n">
         <v>1254.69497</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>3635.55945</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>3723.395</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>518.94075</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>489.48494</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>482.735</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>2.14081</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>10.55</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>516.79994</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>478.93494</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>478.935</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>10.38021</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>82.26305000000001</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>82.26300000000001</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>10.38021</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>82.26305000000001</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>82.26300000000001</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,18 +10063,23 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>6.55435</v>
       </c>
       <c r="D210" s="23" t="n">
-        <v>55.48876999999999</v>
+        <v>55.48877</v>
       </c>
       <c r="E210" s="23" t="n">
         <v>110.63748</v>
@@ -9639,14 +10106,19 @@
         <v>10607.31397</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>8784.298280000001</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>8796.871430000001</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>8555.665000000001</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>7907.69192</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>7751.216</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>6.55435</v>
@@ -9719,14 +10196,19 @@
         <v>910.0038300000001</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>876.60636</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>889.1795100000001</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>804.449</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>85.36312</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0.21128</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>14.173</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>85.36312</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0.21128</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>14.173</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>45423.37402</v>
@@ -9895,38 +10397,43 @@
         <v>52524.76628</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>71783.84129</v>
+        <v>71644.14481</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>76758.11454000001</v>
+        <v>76509.79945000001</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>69843.00269999998</v>
+        <v>69356.22769</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>67365.35639</v>
+        <v>67145.07195999999</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>75527.61540000001</v>
+        <v>76069.60728999999</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>70484.99243000001</v>
+        <v>73544.28840999999</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>74992.00389000001</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>79698.36314</v>
+        <v>79197.95841999998</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>81381.91992999999</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>83550.44628</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>79191.789</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>75301.87969</v>
@@ -9935,38 +10442,43 @@
         <v>90932.54033</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>107777.97638</v>
+        <v>107888.89538</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>115601.36968</v>
+        <v>115712.28868</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>112614.96276</v>
+        <v>112811.70914</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>113277.43285</v>
+        <v>114004.69423</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>114960.52729</v>
+        <v>116020.54229</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>113481.13986</v>
+        <v>114982.86262</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>119931.18043</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>126928.04803</v>
+        <v>126938.04803</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>131423.20958</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>134151.94062</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>138624.876</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>68308.94176999999</v>
@@ -9975,38 +10487,43 @@
         <v>85908.30356</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>105898.63623</v>
+        <v>105998.63623</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>110110.1362</v>
+        <v>110210.1362</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>108898.10506</v>
+        <v>109073.10506</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>111387.54178</v>
+        <v>112352.54178</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>115383.27649</v>
+        <v>116663.27649</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>114018.47921</v>
+        <v>115688.47921</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>120344.35113</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>131318.23617</v>
+        <v>132648.23617</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>135553.90625</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>140468.90525</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>153494.277</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>10263.49647</v>
@@ -10024,29 +10541,34 @@
         <v>12067.56549</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>11931.31699</v>
+        <v>12190.80199</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>12592.23923</v>
+        <v>12812.22423</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>11375.33235</v>
+        <v>11412.83235</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>10675.49017</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>14394.24867</v>
+        <v>15714.24867</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>13616.49622</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>15903.99622</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>24254.28</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>17502.00308</v>
@@ -10055,22 +10577,22 @@
         <v>18135.03937</v>
       </c>
       <c r="E221" s="22" t="n">
-        <v>17947.24776</v>
+        <v>17958.16676</v>
       </c>
       <c r="F221" s="21" t="n">
-        <v>15956.2253</v>
+        <v>15967.1443</v>
       </c>
       <c r="G221" s="22" t="n">
-        <v>16016.19282</v>
+        <v>16037.9392</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>14053.06383</v>
+        <v>14074.81021</v>
       </c>
       <c r="I221" s="22" t="n">
         <v>12401.25966</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>10841.56461</v>
+        <v>10710.78737</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>10265.79237</v>
@@ -10079,14 +10601,19 @@
         <v>10007.53343</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>9488.97704</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>9590.209080000001</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>9385.084000000001</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>245.56869</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>3.17749</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>956.44871</v>
@@ -10156,17 +10688,22 @@
         <v>2928.3932</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>5965.440449999999</v>
+        <v>5965.44045</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>5913.771779999999</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>6041.49875</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>8292.540000000001</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>60.08075</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>225.47449</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>263.375</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>2232.15161</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>1505.752</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>896.3679599999999</v>
@@ -10439,54 +11006,64 @@
         <v>3085.68935</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>3456.14568</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>3583.87265</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>6523.413</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
-        <v>6048.186400000001</v>
+        <v>6048.1864</v>
       </c>
       <c r="D231" s="23" t="n">
         <v>3151.14343</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>3899.79895</v>
+        <v>3899.93606</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>7444.47386</v>
+        <v>7444.61097</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>7446.318639999999</v>
+        <v>7447.40029</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>7900.427119999999</v>
+        <v>7902.716770000001</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>9164.465380000001</v>
+        <v>9170.63315</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>9131.855029999999</v>
+        <v>9131.95075</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>9847.863139999999</v>
+        <v>9847.863140000001</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>9942.640529999999</v>
+        <v>9943.14352</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>11786.16518</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>11801.28076</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>12386.421</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>817.7249399999999</v>
@@ -10501,32 +11078,37 @@
         <v>1292.55837</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>1349.99953</v>
+        <v>1350.32524</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>1295.9957</v>
+        <v>1297.52941</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>1164.97482</v>
+        <v>1171.14259</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>1312.01239</v>
+        <v>1312.09447</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>1391.75344</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>1976.1314</v>
+        <v>1976.63438</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>1887.74603</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>1895.12527</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>1939.879</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>210.7437</v>
@@ -10541,16 +11123,16 @@
         <v>223.57775</v>
       </c>
       <c r="G233" s="22" t="n">
-        <v>323.84641</v>
+        <v>324.46524</v>
       </c>
       <c r="H233" s="21" t="n">
-        <v>217.68324</v>
+        <v>218.30207</v>
       </c>
       <c r="I233" s="22" t="n">
         <v>209.79603</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>210.13481</v>
+        <v>210.14845</v>
       </c>
       <c r="K233" s="22" t="n">
         <v>195.97328</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>51.77924</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>43.118</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>1381.30789</v>
@@ -10575,16 +11162,16 @@
         <v>1472.4609</v>
       </c>
       <c r="E234" s="22" t="n">
-        <v>1618.81717</v>
+        <v>1618.95428</v>
       </c>
       <c r="F234" s="21" t="n">
-        <v>1871.95905</v>
+        <v>1872.09616</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>1945.03764</v>
+        <v>1945.17475</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>1987.0765</v>
+        <v>1987.21361</v>
       </c>
       <c r="I234" s="22" t="n">
         <v>1884.04624</v>
@@ -10599,14 +11186,19 @@
         <v>1927.85167</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>2140.56978</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>2148.30612</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>2970.451</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>86.01495999999999</v>
@@ -10615,16 +11207,16 @@
         <v>86.01496</v>
       </c>
       <c r="E235" s="22" t="n">
-        <v>98.13773999999999</v>
+        <v>98.13774000000001</v>
       </c>
       <c r="F235" s="21" t="n">
         <v>145.21781</v>
       </c>
       <c r="G235" s="22" t="n">
-        <v>85.70459</v>
+        <v>85.70459000000001</v>
       </c>
       <c r="H235" s="21" t="n">
-        <v>87.19167999999999</v>
+        <v>87.19168000000001</v>
       </c>
       <c r="I235" s="22" t="n">
         <v>83.86684</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>755.96761</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>447.435</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>3552.39491</v>
@@ -10667,7 +11264,7 @@
         <v>4312.48</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>5821.78145</v>
+        <v>5821.781449999999</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>5874.25</v>
@@ -10676,17 +11273,22 @@
         <v>6409.31934</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>5488.97058</v>
+        <v>5488.97059</v>
       </c>
       <c r="M236" s="22" t="n">
         <v>6950.10252</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>6985.538</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>21365.62641</v>
@@ -10695,38 +11297,43 @@
         <v>24368.16529</v>
       </c>
       <c r="E237" s="23" t="n">
-        <v>29596.84732</v>
+        <v>29603.96871</v>
       </c>
       <c r="F237" s="33" t="n">
-        <v>33236.37334000001</v>
+        <v>33243.49473</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>40476.34673999999</v>
+        <v>40483.46812999999</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>48138.50112</v>
+        <v>48206.84786</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>57856.89918000001</v>
+        <v>58068.88014</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>71650.52540000001</v>
+        <v>71666.27751999999</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>79903.43398999999</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>85746.77534000001</v>
+        <v>86384.42471000001</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>103306.83516</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>105089.26005</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>117621.927</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-52509.43172000001</v>
@@ -10735,78 +11342,88 @@
         <v>-62148.8845</v>
       </c>
       <c r="E238" s="23" t="n">
-        <v>-67718.39128000001</v>
+        <v>-67811.52219</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-76659.3168</v>
+        <v>-76890.03691000001</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-87196.77986</v>
+        <v>-87663.11659999999</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-99120.32299</v>
+        <v>-100147.13856</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-105942.39281</v>
+        <v>-106549.105</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-114591.08828</v>
+        <v>-112986.50535</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-131794.39138</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-138174.93879</v>
+        <v>-138752.33732</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-156942.84321</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-158802.53402</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-185445.387</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>-5739.335470000001</v>
+        <v>-5739.33547</v>
       </c>
       <c r="D239" s="23" t="n">
         <v>-4448.91611</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-2399.13573</v>
+        <v>-2563.8788</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>-3757.58723</v>
+        <v>-3893.35971</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-4666.12859</v>
+        <v>-4891.516280000002</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-4096.99323</v>
+        <v>-4088.35986</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-1752.39539</v>
+        <v>-1881.855039999999</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-11490.05947</v>
+        <v>-11552.91702</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-5824.47549</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-10709.60242</v>
+        <v>-11280.76097</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-14105.21856</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-14730.99988</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-12288.588</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>5239.55112</v>
@@ -10824,10 +11441,10 @@
         <v>12396.08623</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>13765.4687</v>
+        <v>13918.04111</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>18455.09735</v>
+        <v>18511.71093</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>15387.81175</v>
@@ -10836,17 +11453,22 @@
         <v>19110.65066</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>22431.73138</v>
+        <v>22540.26075</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>16924.18679</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>17802.63792</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>25108.273</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>10978.88659</v>
@@ -10855,38 +11477,43 @@
         <v>13010.19714</v>
       </c>
       <c r="E241" s="22" t="n">
-        <v>15731.08889</v>
+        <v>15895.83196</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>15607.96832</v>
+        <v>15743.7408</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>17062.21482</v>
+        <v>17287.60251</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>17862.46193</v>
+        <v>18006.40097</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>20207.49274</v>
+        <v>20393.56597</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>26877.87122</v>
+        <v>26940.72877</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>24935.12615</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>33141.3338</v>
+        <v>33821.02172</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>31029.40535</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>32533.6378</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>37396.861</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>209836.60213</v>
@@ -10895,35 +11522,38 @@
         <v>244972.14801</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>275160.19543</v>
+        <v>275676.88946</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>305674.33621</v>
+        <v>306158.7588100001</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>330142.28234</v>
+        <v>330682.81061</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>360425.4559400001</v>
+        <v>363490.80273</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>438979.4218700001</v>
+        <v>440787.72169</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>477288.17493</v>
+        <v>478951.34826</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>542042.61095</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>661462.0584699999</v>
+        <v>663557.5427999999</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>604303.5247599999</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>851869.07748</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>998969.157</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>843</v>
@@ -10951,35 +11584,38 @@
         <v>911</v>
       </c>
       <c r="E244" s="52" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F244" s="53" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>844</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>783</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>826</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>844</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>